--- a/data/trans_camb/P55_2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P55_2-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,83</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,47</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.16678275892964</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.6086250199715</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-1.45107479666835</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,76; 5,75</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-8,02; 1,61</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-5,04; 2,0</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.960331106259933</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.721268516937021</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-4.988594209771753</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,01%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,94%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,54%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.40671985743203</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.702489165524824</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.971897589821902</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,86; 6,35</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,3; 1,68</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-5,27; 2,02</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.001754195261102168</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.0270509504293477</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.01514900821174723</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-7,85</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-3,82</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.05134046112650648</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.078482335072537</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.0523709675258866</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,46; 4,16</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-25,57; -1,16</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-13,1; 0,29</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.05838775228162266</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.01798221045821254</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.02086920115079503</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,36%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-7,98%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-3,91%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.1333063336764861</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-6.574411363219457</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-3.266892966961366</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-4,49; 4,36</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-26,02; -1,18</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-13,41; 0,28</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.976541476874766</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-20.49257044920729</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-10.86291180149722</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-3,07</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-7,17</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-5,05</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.913705391937402</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-0.8619778189412142</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.4035028235890507</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-19,04; 0,0</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-22,22; 0,0</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-13,34; -1,24</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.001372082435901627</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.06692392255057045</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.03343766191696307</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-3,07%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-7,17%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-5,05%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.05013174056976056</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.2083084234779413</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1110569105732601</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-19,04; 0,0</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-22,22; 0,0</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-13,34; -1,24</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.04114184356153223</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>-0.008616806674208258</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.004143370340245218</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-5,25</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-2,8</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-2.838689912882042</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-8.159946492101245</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-5.441732422560297</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-3,36; 3,13</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-12,97; -1,74</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-6,65; -0,41</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-17.71658067288662</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-24.83583854627821</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-14.02974070387276</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-0,21%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-5,38%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-2,88%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-1.258702790948447</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-3,47; 3,32</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-13,45; -1,79</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-6,86; -0,42</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.02838689912882042</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.08159946492101244</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.05441732422560297</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.1771658067288662</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.2483583854627821</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1402974070387276</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>-0.01258702790948447</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-0.3555043540571234</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-4.768750475956685</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-2.630542406824876</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-3.692191283851521</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-10.44199056788318</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-5.924945656818799</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>3.043276404603169</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-1.32485091496122</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-0.2162957831301208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.003684378121705488</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.04888914684663727</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.0271106149460938</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.03790358482584458</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1079708145911713</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.06088872951079016</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.03233798312419489</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>-0.01363888942513055</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>-0.002350698095073175</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
